--- a/medicine/Enfance/Kathleen_Vereecken/Kathleen_Vereecken.xlsx
+++ b/medicine/Enfance/Kathleen_Vereecken/Kathleen_Vereecken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathleen Vereecken (née à Gand le 14 décembre 1962) est une auteure belge de livres pour enfants.
 Elle a remporté plusieurs prix pour son travail, notamment les Boekenleeuw (2010) et Woutertje Pieterse Prijs (2019).
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vereecken est née en 1962 et est l'aînée d'une sororité de quatre filles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vereecken est née en 1962 et est l'aînée d'une sororité de quatre filles.
 Elle a travaillé comme journaliste pour divers magazines féminins ainsi que pour le journal De Standaard.
 Aujourd'hui, elle combine son travail d'auteur avec celui de journaliste indépendante.
 </t>
@@ -545,15 +559,17 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vereecken a publié son premier livre, Het raadsel in het fluisterbos, en 1993, une histoire qu'elle a soumise à un concours de littérature pour enfants[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vereecken a publié son premier livre, Het raadsel in het fluisterbos, en 1993, une histoire qu'elle a soumise à un concours de littérature pour enfants,.
 Deux autres livres, Alle kleuren grijs (1997) et Kleine Cecilia (1999), ont été nommés pour le prix Gouden Uil.
 Beaucoup de ses livres ont un thème historique, comme Lara &amp; Rebecca (2006), qui se déroule dans une plantation du XIXe siècle en Louisiane, et Ik denk dat het liefde was (2009) et Zijdeman (2013), qui ont tous deux lieu au XVIIIe siècle à Paris.
 Vereecken a également écrit divers ouvrages non romanesques, comme Het broeikaseffect (2007), sur le réchauffement climatique, et Obama. De weg naar verandering (2009), sur la vie de Barack Obama.
-En 2010, elle a remporté le Boekenleeuw pour son livre Ik denk dat het liefde[4].
+En 2010, elle a remporté le Boekenleeuw pour son livre Ik denk dat het liefde.
 Elle a également remporté le Kleine Cervantes, le prix de littérature pour enfants de la ville de Gand, pour ce livre en 2011.
-En 2019, elle a remporté le prix Woutertje Pieterse Prijs avec l'illustratrice Charlotte Peys, pour leur livre Alles komt goed, altijd, une histoire d'une fille pendant la Première Guerre mondiale[5].
+En 2019, elle a remporté le prix Woutertje Pieterse Prijs avec l'illustratrice Charlotte Peys, pour leur livre Alles komt goed, altijd, une histoire d'une fille pendant la Première Guerre mondiale.
 Les livres de Vereecken ont été illustrés par divers illustrateurs, dont Anne Westerduin et Piet De Moor.
 </t>
         </is>
@@ -583,7 +599,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1993 : Het raadsel à het fluisterbos
 1994 : Gewoon vrienden
@@ -630,11 +648,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2010 : Boekenleeuw pour Ik denk dat het liefde was
 2011 : Kleine Cervantes pour Ik denk dat het liefde was
-2019 : Woutertje Pieterse Prijs pour Alles komt goed, altijd[6]
+2019 : Woutertje Pieterse Prijs pour Alles komt goed, altijd
 2019 : Boekenleeuw pour Alles komt goed, altijd</t>
         </is>
       </c>
